--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cel</t>
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.283874398091151</v>
+        <v>0.3808106666666666</v>
       </c>
       <c r="H2">
-        <v>0.283874398091151</v>
+        <v>1.142432</v>
       </c>
       <c r="I2">
-        <v>0.3606554158730547</v>
+        <v>0.2683764536797542</v>
       </c>
       <c r="J2">
-        <v>0.3606554158730547</v>
+        <v>0.284735073448575</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4728802740447</v>
+        <v>21.605737</v>
       </c>
       <c r="N2">
-        <v>18.4728802740447</v>
+        <v>64.817211</v>
       </c>
       <c r="O2">
-        <v>0.04282037503870845</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P2">
-        <v>0.04282037503870845</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q2">
-        <v>5.243977768804336</v>
+        <v>8.227695110794667</v>
       </c>
       <c r="R2">
-        <v>5.243977768804336</v>
+        <v>74.04925599715199</v>
       </c>
       <c r="S2">
-        <v>0.01544340016742557</v>
+        <v>0.01202596665479727</v>
       </c>
       <c r="T2">
-        <v>0.01544340016742557</v>
+        <v>0.01285002603822662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.283874398091151</v>
+        <v>0.3808106666666666</v>
       </c>
       <c r="H3">
-        <v>0.283874398091151</v>
+        <v>1.142432</v>
       </c>
       <c r="I3">
-        <v>0.3606554158730547</v>
+        <v>0.2683764536797542</v>
       </c>
       <c r="J3">
-        <v>0.3606554158730547</v>
+        <v>0.284735073448575</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>186.487118979237</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N3">
-        <v>186.487118979237</v>
+        <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.4322795501359428</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P3">
-        <v>0.4322795501359428</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q3">
-        <v>52.93891865198377</v>
+        <v>0.1804514502542222</v>
       </c>
       <c r="R3">
-        <v>52.93891865198377</v>
+        <v>1.624063052288</v>
       </c>
       <c r="S3">
-        <v>0.1559039609276955</v>
+        <v>0.0002637558993550853</v>
       </c>
       <c r="T3">
-        <v>0.1559039609276955</v>
+        <v>0.0002818293341181611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.283874398091151</v>
+        <v>0.3808106666666666</v>
       </c>
       <c r="H4">
-        <v>0.283874398091151</v>
+        <v>1.142432</v>
       </c>
       <c r="I4">
-        <v>0.3606554158730547</v>
+        <v>0.2683764536797542</v>
       </c>
       <c r="J4">
-        <v>0.3606554158730547</v>
+        <v>0.284735073448575</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>216.412317214466</v>
+        <v>229.146642</v>
       </c>
       <c r="N4">
-        <v>216.412317214466</v>
+        <v>687.439926</v>
       </c>
       <c r="O4">
-        <v>0.5016465461068224</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P4">
-        <v>0.5016465461068224</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q4">
-        <v>61.43391628876777</v>
+        <v>87.261485504448</v>
       </c>
       <c r="R4">
-        <v>61.43391628876777</v>
+        <v>785.353369540032</v>
       </c>
       <c r="S4">
-        <v>0.1809215437074375</v>
+        <v>0.1275452846505893</v>
       </c>
       <c r="T4">
-        <v>0.1809215437074375</v>
+        <v>0.1362851133600392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.283874398091151</v>
+        <v>0.3808106666666666</v>
       </c>
       <c r="H5">
-        <v>0.283874398091151</v>
+        <v>1.142432</v>
       </c>
       <c r="I5">
-        <v>0.3606554158730547</v>
+        <v>0.2683764536797542</v>
       </c>
       <c r="J5">
-        <v>0.3606554158730547</v>
+        <v>0.284735073448575</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0316648693078</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N5">
-        <v>10.0316648693078</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O5">
-        <v>0.02325352871852629</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P5">
-        <v>0.02325352871852629</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q5">
-        <v>2.847732826626897</v>
+        <v>84.04092869583287</v>
       </c>
       <c r="R5">
-        <v>2.847732826626897</v>
+        <v>756.3683582624958</v>
       </c>
       <c r="S5">
-        <v>0.00838651107049612</v>
+        <v>0.1228379749765261</v>
       </c>
       <c r="T5">
-        <v>0.00838651107049612</v>
+        <v>0.1312552431119309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.366402729367468</v>
+        <v>0.3808106666666666</v>
       </c>
       <c r="H6">
-        <v>0.366402729367468</v>
+        <v>1.142432</v>
       </c>
       <c r="I6">
-        <v>0.4655056237040974</v>
+        <v>0.2683764536797542</v>
       </c>
       <c r="J6">
-        <v>0.4655056237040974</v>
+        <v>0.284735073448575</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.4728802740447</v>
+        <v>10.2468025</v>
       </c>
       <c r="N6">
-        <v>18.4728802740447</v>
+        <v>20.493605</v>
       </c>
       <c r="O6">
-        <v>0.04282037503870845</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P6">
-        <v>0.04282037503870845</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q6">
-        <v>6.768513751688438</v>
+        <v>3.902091691226667</v>
       </c>
       <c r="R6">
-        <v>6.768513751688438</v>
+        <v>23.41255014736</v>
       </c>
       <c r="S6">
-        <v>0.01993312538963734</v>
+        <v>0.005703471498486414</v>
       </c>
       <c r="T6">
-        <v>0.01993312538963734</v>
+        <v>0.004062861604260189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.366402729367468</v>
+        <v>0.369453</v>
       </c>
       <c r="H7">
-        <v>0.366402729367468</v>
+        <v>1.108359</v>
       </c>
       <c r="I7">
-        <v>0.4655056237040974</v>
+        <v>0.260372134029893</v>
       </c>
       <c r="J7">
-        <v>0.4655056237040974</v>
+        <v>0.2762428584566864</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>186.487118979237</v>
+        <v>21.605737</v>
       </c>
       <c r="N7">
-        <v>186.487118979237</v>
+        <v>64.817211</v>
       </c>
       <c r="O7">
-        <v>0.4322795501359428</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P7">
-        <v>0.4322795501359428</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q7">
-        <v>68.32938938586818</v>
+        <v>7.982304351861001</v>
       </c>
       <c r="R7">
-        <v>68.32938938586818</v>
+        <v>71.840739166749</v>
       </c>
       <c r="S7">
-        <v>0.2012285616005587</v>
+        <v>0.01166729256143425</v>
       </c>
       <c r="T7">
-        <v>0.2012285616005587</v>
+        <v>0.01246677439856623</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.366402729367468</v>
+        <v>0.369453</v>
       </c>
       <c r="H8">
-        <v>0.366402729367468</v>
+        <v>1.108359</v>
       </c>
       <c r="I8">
-        <v>0.4655056237040974</v>
+        <v>0.260372134029893</v>
       </c>
       <c r="J8">
-        <v>0.4655056237040974</v>
+        <v>0.2762428584566864</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>216.412317214466</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N8">
-        <v>216.412317214466</v>
+        <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.5016465461068224</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P8">
-        <v>0.5016465461068224</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q8">
-        <v>79.29406369611861</v>
+        <v>0.175069491184</v>
       </c>
       <c r="R8">
-        <v>79.29406369611861</v>
+        <v>1.575625420656</v>
       </c>
       <c r="S8">
-        <v>0.2335192883244626</v>
+        <v>0.0002558893875988269</v>
       </c>
       <c r="T8">
-        <v>0.2335192883244626</v>
+        <v>0.0002734237827143068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.366402729367468</v>
+        <v>0.369453</v>
       </c>
       <c r="H9">
-        <v>0.366402729367468</v>
+        <v>1.108359</v>
       </c>
       <c r="I9">
-        <v>0.4655056237040974</v>
+        <v>0.260372134029893</v>
       </c>
       <c r="J9">
-        <v>0.4655056237040974</v>
+        <v>0.2762428584566864</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0316648693078</v>
+        <v>229.146642</v>
       </c>
       <c r="N9">
-        <v>10.0316648693078</v>
+        <v>687.439926</v>
       </c>
       <c r="O9">
-        <v>0.02325352871852629</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P9">
-        <v>0.02325352871852629</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q9">
-        <v>3.675629388214122</v>
+        <v>84.65891432682601</v>
       </c>
       <c r="R9">
-        <v>3.675629388214122</v>
+        <v>761.9302289414341</v>
       </c>
       <c r="S9">
-        <v>0.01082464838943872</v>
+        <v>0.1237412503764272</v>
       </c>
       <c r="T9">
-        <v>0.01082464838943872</v>
+        <v>0.1322204139577845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.136829860534237</v>
+        <v>0.369453</v>
       </c>
       <c r="H10">
-        <v>0.136829860534237</v>
+        <v>1.108359</v>
       </c>
       <c r="I10">
-        <v>0.1738389604228478</v>
+        <v>0.260372134029893</v>
       </c>
       <c r="J10">
-        <v>0.1738389604228478</v>
+        <v>0.2762428584566864</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4728802740447</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N10">
-        <v>18.4728802740447</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O10">
-        <v>0.04282037503870845</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P10">
-        <v>0.04282037503870845</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q10">
-        <v>2.527641631563195</v>
+        <v>81.534410528053</v>
       </c>
       <c r="R10">
-        <v>2.527641631563195</v>
+        <v>733.809694752477</v>
       </c>
       <c r="S10">
-        <v>0.007443849481645537</v>
+        <v>0.1191743360716502</v>
       </c>
       <c r="T10">
-        <v>0.007443849481645537</v>
+        <v>0.1273405594383706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.136829860534237</v>
+        <v>0.369453</v>
       </c>
       <c r="H11">
-        <v>0.136829860534237</v>
+        <v>1.108359</v>
       </c>
       <c r="I11">
-        <v>0.1738389604228478</v>
+        <v>0.260372134029893</v>
       </c>
       <c r="J11">
-        <v>0.1738389604228478</v>
+        <v>0.2762428584566864</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.487118979237</v>
+        <v>10.2468025</v>
       </c>
       <c r="N11">
-        <v>186.487118979237</v>
+        <v>20.493605</v>
       </c>
       <c r="O11">
-        <v>0.4322795501359428</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P11">
-        <v>0.4322795501359428</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q11">
-        <v>25.51700648136066</v>
+        <v>3.785711924032501</v>
       </c>
       <c r="R11">
-        <v>25.51700648136066</v>
+        <v>22.714271544195</v>
       </c>
       <c r="S11">
-        <v>0.0751470276076886</v>
+        <v>0.005533365632782436</v>
       </c>
       <c r="T11">
-        <v>0.0751470276076886</v>
+        <v>0.003941686879250774</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.136829860534237</v>
+        <v>0.256018</v>
       </c>
       <c r="H12">
-        <v>0.136829860534237</v>
+        <v>0.768054</v>
       </c>
       <c r="I12">
-        <v>0.1738389604228478</v>
+        <v>0.1804287771653367</v>
       </c>
       <c r="J12">
-        <v>0.1738389604228478</v>
+        <v>0.1914266337974355</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>216.412317214466</v>
+        <v>21.605737</v>
       </c>
       <c r="N12">
-        <v>216.412317214466</v>
+        <v>64.817211</v>
       </c>
       <c r="O12">
-        <v>0.5016465461068224</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P12">
-        <v>0.5016465461068224</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q12">
-        <v>29.61166718234644</v>
+        <v>5.531457575266001</v>
       </c>
       <c r="R12">
-        <v>29.61166718234644</v>
+        <v>49.783118177394</v>
       </c>
       <c r="S12">
-        <v>0.08720571407492217</v>
+        <v>0.00808502544841502</v>
       </c>
       <c r="T12">
-        <v>0.08720571407492217</v>
+        <v>0.008639038383697329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.256018</v>
+      </c>
+      <c r="H13">
+        <v>0.768054</v>
+      </c>
+      <c r="I13">
+        <v>0.1804287771653367</v>
+      </c>
+      <c r="J13">
+        <v>0.1914266337974355</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.4738613333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.421584</v>
+      </c>
+      <c r="O13">
+        <v>0.0009827833095589584</v>
+      </c>
+      <c r="P13">
+        <v>0.0009897949371139249</v>
+      </c>
+      <c r="Q13">
+        <v>0.1213170308373333</v>
+      </c>
+      <c r="R13">
+        <v>1.091853277536</v>
+      </c>
+      <c r="S13">
+        <v>0.0001773223907622254</v>
+      </c>
+      <c r="T13">
+        <v>0.000189473112961463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.256018</v>
+      </c>
+      <c r="H14">
+        <v>0.768054</v>
+      </c>
+      <c r="I14">
+        <v>0.1804287771653367</v>
+      </c>
+      <c r="J14">
+        <v>0.1914266337974355</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>229.146642</v>
+      </c>
+      <c r="N14">
+        <v>687.439926</v>
+      </c>
+      <c r="O14">
+        <v>0.4752476713280717</v>
+      </c>
+      <c r="P14">
+        <v>0.4786383065121521</v>
+      </c>
+      <c r="Q14">
+        <v>58.66566499155601</v>
+      </c>
+      <c r="R14">
+        <v>527.990984924004</v>
+      </c>
+      <c r="S14">
+        <v>0.08574835618839782</v>
+      </c>
+      <c r="T14">
+        <v>0.09162411982212643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.256018</v>
+      </c>
+      <c r="H15">
+        <v>0.768054</v>
+      </c>
+      <c r="I15">
+        <v>0.1804287771653367</v>
+      </c>
+      <c r="J15">
+        <v>0.1914266337974355</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>220.6895343333333</v>
+      </c>
+      <c r="N15">
+        <v>662.0686029999999</v>
+      </c>
+      <c r="O15">
+        <v>0.4577077209728135</v>
+      </c>
+      <c r="P15">
+        <v>0.4609732180943856</v>
+      </c>
+      <c r="Q15">
+        <v>56.50049320095133</v>
+      </c>
+      <c r="R15">
+        <v>508.504438808562</v>
+      </c>
+      <c r="S15">
+        <v>0.08258364439425787</v>
+      </c>
+      <c r="T15">
+        <v>0.08824255141057932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.136829860534237</v>
-      </c>
-      <c r="H13">
-        <v>0.136829860534237</v>
-      </c>
-      <c r="I13">
-        <v>0.1738389604228478</v>
-      </c>
-      <c r="J13">
-        <v>0.1738389604228478</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.0316648693078</v>
-      </c>
-      <c r="N13">
-        <v>10.0316648693078</v>
-      </c>
-      <c r="O13">
-        <v>0.02325352871852629</v>
-      </c>
-      <c r="P13">
-        <v>0.02325352871852629</v>
-      </c>
-      <c r="Q13">
-        <v>1.372631304993591</v>
-      </c>
-      <c r="R13">
-        <v>1.372631304993591</v>
-      </c>
-      <c r="S13">
-        <v>0.004042369258591446</v>
-      </c>
-      <c r="T13">
-        <v>0.004042369258591446</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.256018</v>
+      </c>
+      <c r="H16">
+        <v>0.768054</v>
+      </c>
+      <c r="I16">
+        <v>0.1804287771653367</v>
+      </c>
+      <c r="J16">
+        <v>0.1914266337974355</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.2468025</v>
+      </c>
+      <c r="N16">
+        <v>20.493605</v>
+      </c>
+      <c r="O16">
+        <v>0.02125175819370578</v>
+      </c>
+      <c r="P16">
+        <v>0.01426891866552565</v>
+      </c>
+      <c r="Q16">
+        <v>2.623365882445</v>
+      </c>
+      <c r="R16">
+        <v>15.74019529467</v>
+      </c>
+      <c r="S16">
+        <v>0.003834428743503758</v>
+      </c>
+      <c r="T16">
+        <v>0.002731451068070971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.168097</v>
+      </c>
+      <c r="H17">
+        <v>0.504291</v>
+      </c>
+      <c r="I17">
+        <v>0.118466420935878</v>
+      </c>
+      <c r="J17">
+        <v>0.1256874237805448</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.605737</v>
+      </c>
+      <c r="N17">
+        <v>64.817211</v>
+      </c>
+      <c r="O17">
+        <v>0.04481006619585007</v>
+      </c>
+      <c r="P17">
+        <v>0.04512976179082277</v>
+      </c>
+      <c r="Q17">
+        <v>3.631859572489001</v>
+      </c>
+      <c r="R17">
+        <v>32.686736152401</v>
+      </c>
+      <c r="S17">
+        <v>0.00530848816412213</v>
+      </c>
+      <c r="T17">
+        <v>0.005672243495318181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.168097</v>
+      </c>
+      <c r="H18">
+        <v>0.504291</v>
+      </c>
+      <c r="I18">
+        <v>0.118466420935878</v>
+      </c>
+      <c r="J18">
+        <v>0.1256874237805448</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.4738613333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.421584</v>
+      </c>
+      <c r="O18">
+        <v>0.0009827833095589584</v>
+      </c>
+      <c r="P18">
+        <v>0.0009897949371139249</v>
+      </c>
+      <c r="Q18">
+        <v>0.07965466854933334</v>
+      </c>
+      <c r="R18">
+        <v>0.7168920169440001</v>
+      </c>
+      <c r="S18">
+        <v>0.0001164268212389668</v>
+      </c>
+      <c r="T18">
+        <v>0.0001244047757168756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.168097</v>
+      </c>
+      <c r="H19">
+        <v>0.504291</v>
+      </c>
+      <c r="I19">
+        <v>0.118466420935878</v>
+      </c>
+      <c r="J19">
+        <v>0.1256874237805448</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>229.146642</v>
+      </c>
+      <c r="N19">
+        <v>687.439926</v>
+      </c>
+      <c r="O19">
+        <v>0.4752476713280717</v>
+      </c>
+      <c r="P19">
+        <v>0.4786383065121521</v>
+      </c>
+      <c r="Q19">
+        <v>38.51886308027401</v>
+      </c>
+      <c r="R19">
+        <v>346.669767722466</v>
+      </c>
+      <c r="S19">
+        <v>0.05630089068034713</v>
+      </c>
+      <c r="T19">
+        <v>0.06015881566819516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.168097</v>
+      </c>
+      <c r="H20">
+        <v>0.504291</v>
+      </c>
+      <c r="I20">
+        <v>0.118466420935878</v>
+      </c>
+      <c r="J20">
+        <v>0.1256874237805448</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>220.6895343333333</v>
+      </c>
+      <c r="N20">
+        <v>662.0686029999999</v>
+      </c>
+      <c r="O20">
+        <v>0.4577077209728135</v>
+      </c>
+      <c r="P20">
+        <v>0.4609732180943856</v>
+      </c>
+      <c r="Q20">
+        <v>37.09724865283034</v>
+      </c>
+      <c r="R20">
+        <v>333.875237875473</v>
+      </c>
+      <c r="S20">
+        <v>0.0542229955383667</v>
+      </c>
+      <c r="T20">
+        <v>0.05793853621411055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.168097</v>
+      </c>
+      <c r="H21">
+        <v>0.504291</v>
+      </c>
+      <c r="I21">
+        <v>0.118466420935878</v>
+      </c>
+      <c r="J21">
+        <v>0.1256874237805448</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.2468025</v>
+      </c>
+      <c r="N21">
+        <v>20.493605</v>
+      </c>
+      <c r="O21">
+        <v>0.02125175819370578</v>
+      </c>
+      <c r="P21">
+        <v>0.01426891866552565</v>
+      </c>
+      <c r="Q21">
+        <v>1.7224567598425</v>
+      </c>
+      <c r="R21">
+        <v>10.334740559055</v>
+      </c>
+      <c r="S21">
+        <v>0.002517619731803042</v>
+      </c>
+      <c r="T21">
+        <v>0.001793423627204048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.2445635</v>
+      </c>
+      <c r="H22">
+        <v>0.489127</v>
+      </c>
+      <c r="I22">
+        <v>0.1723562141891383</v>
+      </c>
+      <c r="J22">
+        <v>0.1219080105167582</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.605737</v>
+      </c>
+      <c r="N22">
+        <v>64.817211</v>
+      </c>
+      <c r="O22">
+        <v>0.04481006619585007</v>
+      </c>
+      <c r="P22">
+        <v>0.04512976179082277</v>
+      </c>
+      <c r="Q22">
+        <v>5.2839746607995</v>
+      </c>
+      <c r="R22">
+        <v>31.703847964797</v>
+      </c>
+      <c r="S22">
+        <v>0.007723293367081401</v>
+      </c>
+      <c r="T22">
+        <v>0.005501679475014417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.2445635</v>
+      </c>
+      <c r="H23">
+        <v>0.489127</v>
+      </c>
+      <c r="I23">
+        <v>0.1723562141891383</v>
+      </c>
+      <c r="J23">
+        <v>0.1219080105167582</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.4738613333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.421584</v>
+      </c>
+      <c r="O23">
+        <v>0.0009827833095589584</v>
+      </c>
+      <c r="P23">
+        <v>0.0009897949371139249</v>
+      </c>
+      <c r="Q23">
+        <v>0.1158891861946666</v>
+      </c>
+      <c r="R23">
+        <v>0.6953351171679999</v>
+      </c>
+      <c r="S23">
+        <v>0.0001693888106038541</v>
+      </c>
+      <c r="T23">
+        <v>0.0001206639316031184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.2445635</v>
+      </c>
+      <c r="H24">
+        <v>0.489127</v>
+      </c>
+      <c r="I24">
+        <v>0.1723562141891383</v>
+      </c>
+      <c r="J24">
+        <v>0.1219080105167582</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>229.146642</v>
+      </c>
+      <c r="N24">
+        <v>687.439926</v>
+      </c>
+      <c r="O24">
+        <v>0.4752476713280717</v>
+      </c>
+      <c r="P24">
+        <v>0.4786383065121521</v>
+      </c>
+      <c r="Q24">
+        <v>56.040904780767</v>
+      </c>
+      <c r="R24">
+        <v>336.245428684602</v>
+      </c>
+      <c r="S24">
+        <v>0.08191188943231034</v>
+      </c>
+      <c r="T24">
+        <v>0.05834984370400679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.2445635</v>
+      </c>
+      <c r="H25">
+        <v>0.489127</v>
+      </c>
+      <c r="I25">
+        <v>0.1723562141891383</v>
+      </c>
+      <c r="J25">
+        <v>0.1219080105167582</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>220.6895343333333</v>
+      </c>
+      <c r="N25">
+        <v>662.0686029999999</v>
+      </c>
+      <c r="O25">
+        <v>0.4577077209728135</v>
+      </c>
+      <c r="P25">
+        <v>0.4609732180943856</v>
+      </c>
+      <c r="Q25">
+        <v>53.97260492993016</v>
+      </c>
+      <c r="R25">
+        <v>323.8356295795809</v>
+      </c>
+      <c r="S25">
+        <v>0.07888876999201259</v>
+      </c>
+      <c r="T25">
+        <v>0.05619632791939425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.2445635</v>
+      </c>
+      <c r="H26">
+        <v>0.489127</v>
+      </c>
+      <c r="I26">
+        <v>0.1723562141891383</v>
+      </c>
+      <c r="J26">
+        <v>0.1219080105167582</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.2468025</v>
+      </c>
+      <c r="N26">
+        <v>20.493605</v>
+      </c>
+      <c r="O26">
+        <v>0.02125175819370578</v>
+      </c>
+      <c r="P26">
+        <v>0.01426891866552565</v>
+      </c>
+      <c r="Q26">
+        <v>2.50599388320875</v>
+      </c>
+      <c r="R26">
+        <v>10.023975532835</v>
+      </c>
+      <c r="S26">
+        <v>0.003662872587130128</v>
+      </c>
+      <c r="T26">
+        <v>0.001739495486739669</v>
       </c>
     </row>
   </sheetData>
